--- a/docs/icare/obf-ResearchSubject.xlsx
+++ b/docs/icare/obf-ResearchSubject.xlsx
@@ -233,7 +233,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Status-extension</t>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-Status-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -486,7 +486,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Identifier-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>participationperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ParticipationPeriod-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ParticipationPeriod-extension}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>researchstudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ResearchStudy-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ResearchStudy-extension}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Patient-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Patient-extension}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>assignedarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-AssignedArm-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-AssignedArm-extension}
 </t>
   </si>
   <si>
@@ -537,7 +537,7 @@
     <t>actualarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ActualArm-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ActualArm-extension}
 </t>
   </si>
   <si>
@@ -547,17 +547,17 @@
     <t>terminationreason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-TerminationReason-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-TerminationReason-extension}
 </t>
   </si>
   <si>
     <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
-    <t>http://mcodeinitiative.org/us/icare/StructureDefinition/obf-TerminationReason-extension</t>
-  </si>
-  <si>
-    <t>http://mcodeinitiative.org/us/icare/ValueSet/obf-ResearchSubjectTerminationReasonVS</t>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-TerminationReason-extension</t>
+  </si>
+  <si>
+    <t>http://icaredata.org/icare/ValueSet/obf-ResearchSubjectTerminationReasonVS</t>
   </si>
   <si>
     <t>Basic.modifierExtension</t>
@@ -605,7 +605,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mcodeinitiative.org/us/icare/CodeSystem/icare-basic-resource-type"/&gt;
+    &lt;system value="http://icaredata.org/icare/CodeSystem/icare-basic-resource-type"/&gt;
     &lt;code value="obf-ResearchSubject"/&gt;
     &lt;userSelected value="false"/&gt;
   &lt;/coding&gt;
@@ -872,7 +872,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.94140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>

--- a/docs/icare/obf-ResearchSubject.xlsx
+++ b/docs/icare/obf-ResearchSubject.xlsx
@@ -233,7 +233,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-Status-extension</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Status-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -486,7 +486,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Identifier-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>participationperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ParticipationPeriod-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ParticipationPeriod-extension}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>researchstudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ResearchStudy-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ResearchStudy-extension}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-Patient-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Patient-extension}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>assignedarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-AssignedArm-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-AssignedArm-extension}
 </t>
   </si>
   <si>
@@ -537,7 +537,7 @@
     <t>actualarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ActualArm-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ActualArm-extension}
 </t>
   </si>
   <si>
@@ -547,17 +547,17 @@
     <t>terminationreason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-TerminationReason-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-TerminationReason-extension}
 </t>
   </si>
   <si>
     <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-TerminationReason-extension</t>
-  </si>
-  <si>
-    <t>http://icaredata.org/icare/ValueSet/obf-ResearchSubjectTerminationReasonVS</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-TerminationReason-extension</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/codex/us/icare/ValueSet/obf-ResearchSubjectTerminationReasonVS</t>
   </si>
   <si>
     <t>Basic.modifierExtension</t>
@@ -605,7 +605,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://icaredata.org/icare/CodeSystem/icare-basic-resource-type"/&gt;
+    &lt;system value="http://mcodeinitiative.org/codex/us/icare/CodeSystem/icare-basic-resource-type"/&gt;
     &lt;code value="obf-ResearchSubject"/&gt;
     &lt;userSelected value="false"/&gt;
   &lt;/coding&gt;
@@ -872,7 +872,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.94140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
